--- a/测试单-电子书_txt-word_161222.xlsx
+++ b/测试单-电子书_txt-word_161222.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试说明" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="823">
   <si>
     <t>编号</t>
   </si>
@@ -5731,6 +5731,18 @@
   </si>
   <si>
     <t>复检已修改txt。新增编号292~293记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加了判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8255,7 +8267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -9219,11 +9231,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P295"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A294" sqref="A294:G295"/>
+      <selection pane="bottomRight" activeCell="N295" sqref="N295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20776,7 +20788,15 @@
       <c r="H292" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="O292" s="329"/>
+      <c r="L292" s="269" t="s">
+        <v>820</v>
+      </c>
+      <c r="N292" s="269" t="s">
+        <v>821</v>
+      </c>
+      <c r="O292" s="329">
+        <v>42727</v>
+      </c>
       <c r="P292" s="269" t="s">
         <v>807</v>
       </c>
@@ -20806,7 +20826,15 @@
       <c r="H293" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="O293" s="329"/>
+      <c r="L293" s="269" t="s">
+        <v>820</v>
+      </c>
+      <c r="N293" s="269" t="s">
+        <v>822</v>
+      </c>
+      <c r="O293" s="329">
+        <v>42727</v>
+      </c>
       <c r="P293" s="269" t="s">
         <v>807</v>
       </c>

--- a/测试单-电子书_txt-word_161222.xlsx
+++ b/测试单-电子书_txt-word_161222.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="825">
   <si>
     <t>编号</t>
   </si>
@@ -5743,6 +5743,14 @@
   </si>
   <si>
     <t>添加判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能复现。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9232,10 +9240,10 @@
   <dimension ref="A1:P295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="N248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N295" sqref="N295"/>
+      <selection pane="bottomRight" activeCell="O291" sqref="O291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20750,14 +20758,11 @@
       <c r="H291" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="I291" s="269" t="s">
-        <v>660</v>
-      </c>
       <c r="L291" s="269" t="s">
         <v>52</v>
       </c>
       <c r="O291" s="329">
-        <v>42724</v>
+        <v>42728</v>
       </c>
       <c r="P291" s="269" t="s">
         <v>806</v>
@@ -20864,9 +20869,17 @@
       <c r="H294" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="O294" s="329"/>
+      <c r="L294" s="269" t="s">
+        <v>823</v>
+      </c>
+      <c r="N294" s="269" t="s">
+        <v>824</v>
+      </c>
+      <c r="O294" s="329">
+        <v>42728</v>
+      </c>
       <c r="P294" s="269" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="295" spans="1:16" ht="40.5">
@@ -20894,9 +20907,14 @@
       <c r="H295" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="O295" s="329"/>
+      <c r="L295" s="269" t="s">
+        <v>820</v>
+      </c>
+      <c r="O295" s="329">
+        <v>42728</v>
+      </c>
       <c r="P295" s="269" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>

--- a/测试单-电子书_txt-word_161222.xlsx
+++ b/测试单-电子书_txt-word_161222.xlsx
@@ -4351,9 +4351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加文件排序</t>
-  </si>
-  <si>
     <t>先观察一下有没有复现的规律。</t>
   </si>
   <si>
@@ -5738,10 +5735,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加了判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5751,6 +5744,14 @@
   </si>
   <si>
     <t>不能复现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加文件排序。QQ上已经确认可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加了判断，已经修好一段时间，请复测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6761,7 +6762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="368">
+  <cellXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7879,6 +7880,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="64">
@@ -8661,7 +8665,7 @@
         <v>42713</v>
       </c>
       <c r="F22" s="235" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="23" spans="2:6" s="243" customFormat="1">
@@ -8678,7 +8682,7 @@
         <v>42715</v>
       </c>
       <c r="F23" s="235" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="24" spans="2:6" s="243" customFormat="1">
@@ -8695,7 +8699,7 @@
         <v>42723</v>
       </c>
       <c r="F24" s="235" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="25" spans="2:6" s="243" customFormat="1">
@@ -8712,7 +8716,7 @@
         <v>42723</v>
       </c>
       <c r="F25" s="235" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -8844,12 +8848,12 @@
     </row>
     <row r="49" spans="6:6">
       <c r="F49" s="243" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="243" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -8885,7 +8889,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E1" s="168" t="s">
         <v>3</v>
@@ -9144,16 +9148,16 @@
         <v>518</v>
       </c>
       <c r="G7" s="227" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H7" s="241" t="s">
         <v>106</v>
       </c>
       <c r="I7" s="241" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N7" s="244" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O7" s="258"/>
     </row>
@@ -9174,19 +9178,19 @@
         <v>42715</v>
       </c>
       <c r="F8" s="241" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G8" s="227" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H8" s="241" t="s">
         <v>106</v>
       </c>
       <c r="I8" s="241" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N8" s="244" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O8" s="258"/>
     </row>
@@ -9210,11 +9214,11 @@
         <v>648</v>
       </c>
       <c r="G9" s="227" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H9" s="241"/>
       <c r="I9" s="241" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O9" s="258"/>
     </row>
@@ -9240,10 +9244,10 @@
   <dimension ref="A1:P295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="N248" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O291" sqref="O291"/>
+      <selection pane="bottomRight" activeCell="N292" sqref="N292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9304,7 +9308,7 @@
         <v>417</v>
       </c>
       <c r="I2" s="276" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J2" s="276" t="s">
         <v>7</v>
@@ -9919,7 +9923,7 @@
       </c>
       <c r="F18" s="286"/>
       <c r="G18" s="287" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H18" s="288"/>
       <c r="I18" s="283" t="s">
@@ -10151,7 +10155,7 @@
       </c>
       <c r="F24" s="293"/>
       <c r="G24" s="287" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H24" s="295"/>
       <c r="I24" s="290" t="s">
@@ -10633,14 +10637,14 @@
         <v>42555</v>
       </c>
       <c r="F37" s="311" t="s">
+        <v>786</v>
+      </c>
+      <c r="G37" s="312" t="s">
         <v>787</v>
-      </c>
-      <c r="G37" s="312" t="s">
-        <v>788</v>
       </c>
       <c r="H37" s="313"/>
       <c r="I37" s="313" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="K37" s="309">
         <v>42634</v>
@@ -11515,10 +11519,10 @@
       </c>
       <c r="F60" s="286"/>
       <c r="G60" s="287" t="s">
+        <v>782</v>
+      </c>
+      <c r="I60" s="288" t="s">
         <v>783</v>
-      </c>
-      <c r="I60" s="288" t="s">
-        <v>784</v>
       </c>
       <c r="K60" s="284">
         <v>42634</v>
@@ -11907,16 +11911,16 @@
         <v>42612</v>
       </c>
       <c r="F70" s="286" t="s">
+        <v>791</v>
+      </c>
+      <c r="G70" s="287" t="s">
         <v>792</v>
-      </c>
-      <c r="G70" s="287" t="s">
-        <v>793</v>
       </c>
       <c r="H70" s="288" t="s">
         <v>262</v>
       </c>
       <c r="I70" s="283" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K70" s="284">
         <v>42634</v>
@@ -12308,7 +12312,7 @@
         <v>644</v>
       </c>
       <c r="G80" s="299" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H80" s="288" t="s">
         <v>642</v>
@@ -12691,7 +12695,7 @@
       </c>
       <c r="F90" s="286"/>
       <c r="G90" s="287" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H90" s="288" t="s">
         <v>262</v>
@@ -13544,16 +13548,16 @@
         <v>42616</v>
       </c>
       <c r="F112" s="286" t="s">
+        <v>774</v>
+      </c>
+      <c r="G112" s="287" t="s">
         <v>775</v>
-      </c>
-      <c r="G112" s="287" t="s">
-        <v>776</v>
       </c>
       <c r="H112" s="288" t="s">
         <v>262</v>
       </c>
       <c r="I112" s="288" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K112" s="298">
         <v>42666</v>
@@ -14925,7 +14929,7 @@
         <v>256</v>
       </c>
       <c r="G148" s="328" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I148" s="296" t="s">
         <v>426</v>
@@ -14937,7 +14941,7 @@
         <v>52</v>
       </c>
       <c r="N148" s="315" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O148" s="314">
         <v>42642</v>
@@ -15877,7 +15881,7 @@
         <v>259</v>
       </c>
       <c r="G171" s="331" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H171" s="288"/>
       <c r="I171" s="289" t="s">
@@ -17884,11 +17888,11 @@
         <v>368</v>
       </c>
       <c r="G219" s="343" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H219" s="313"/>
       <c r="I219" s="269" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J219" s="271"/>
       <c r="K219" s="271"/>
@@ -18295,7 +18299,7 @@
         <v>385</v>
       </c>
       <c r="G229" s="334" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H229" s="288" t="s">
         <v>262</v>
@@ -18339,7 +18343,7 @@
         <v>220</v>
       </c>
       <c r="G230" s="331" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H230" s="288" t="s">
         <v>262</v>
@@ -19030,7 +19034,7 @@
         <v>552</v>
       </c>
       <c r="G248" s="350" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H248" s="313" t="s">
         <v>262</v>
@@ -19043,9 +19047,11 @@
       </c>
       <c r="M248" s="271"/>
       <c r="N248" s="271" t="s">
-        <v>674</v>
-      </c>
-      <c r="O248" s="271"/>
+        <v>823</v>
+      </c>
+      <c r="O248" s="368">
+        <v>42751</v>
+      </c>
       <c r="P248" s="269" t="s">
         <v>366</v>
       </c>
@@ -19067,16 +19073,16 @@
         <v>42669</v>
       </c>
       <c r="F249" s="286" t="s">
+        <v>695</v>
+      </c>
+      <c r="G249" s="327" t="s">
         <v>696</v>
-      </c>
-      <c r="G249" s="327" t="s">
-        <v>697</v>
       </c>
       <c r="H249" s="288" t="s">
         <v>262</v>
       </c>
       <c r="I249" s="300" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K249" s="298">
         <v>42715</v>
@@ -19111,7 +19117,7 @@
         <v>580</v>
       </c>
       <c r="G250" s="327" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I250" s="300" t="s">
         <v>46</v>
@@ -19149,7 +19155,7 @@
         <v>553</v>
       </c>
       <c r="G251" s="352" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H251" s="313" t="s">
         <v>262</v>
@@ -19161,7 +19167,7 @@
         <v>155</v>
       </c>
       <c r="N251" s="353" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P251" s="353" t="s">
         <v>428</v>
@@ -19184,16 +19190,16 @@
         <v>42669</v>
       </c>
       <c r="F252" s="286" t="s">
+        <v>684</v>
+      </c>
+      <c r="G252" s="322" t="s">
         <v>685</v>
-      </c>
-      <c r="G252" s="322" t="s">
-        <v>686</v>
       </c>
       <c r="H252" s="288" t="s">
         <v>262</v>
       </c>
       <c r="I252" s="300" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K252" s="298">
         <v>42713</v>
@@ -19623,13 +19629,13 @@
         <v>262</v>
       </c>
       <c r="I262" s="269" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L262" s="269" t="s">
         <v>155</v>
       </c>
       <c r="N262" s="353" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P262" s="353" t="s">
         <v>428</v>
@@ -19713,7 +19719,7 @@
       </c>
       <c r="M264" s="271"/>
       <c r="N264" s="269" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O264" s="329">
         <v>42709</v>
@@ -19739,16 +19745,16 @@
         <v>42679</v>
       </c>
       <c r="F265" s="300" t="s">
+        <v>693</v>
+      </c>
+      <c r="G265" s="327" t="s">
         <v>694</v>
-      </c>
-      <c r="G265" s="327" t="s">
-        <v>695</v>
       </c>
       <c r="H265" s="288" t="s">
         <v>262</v>
       </c>
       <c r="I265" s="300" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K265" s="298">
         <v>42715</v>
@@ -19783,7 +19789,7 @@
         <v>617</v>
       </c>
       <c r="G266" s="362" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H266" s="363" t="s">
         <v>262</v>
@@ -19909,7 +19915,7 @@
         <v>648</v>
       </c>
       <c r="G269" s="327" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I269" s="300" t="s">
         <v>46</v>
@@ -19918,7 +19924,7 @@
         <v>155</v>
       </c>
       <c r="N269" s="300" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O269" s="298">
         <v>42707</v>
@@ -19947,7 +19953,7 @@
         <v>648</v>
       </c>
       <c r="G270" s="327" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I270" s="300" t="s">
         <v>514</v>
@@ -19959,7 +19965,7 @@
         <v>52</v>
       </c>
       <c r="N270" s="300" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O270" s="298">
         <v>42709</v>
@@ -19988,7 +19994,7 @@
         <v>648</v>
       </c>
       <c r="G271" s="327" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I271" s="300" t="s">
         <v>514</v>
@@ -20000,7 +20006,7 @@
         <v>52</v>
       </c>
       <c r="N271" s="300" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O271" s="298">
         <v>42709</v>
@@ -20029,7 +20035,7 @@
         <v>648</v>
       </c>
       <c r="G272" s="327" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I272" s="300" t="s">
         <v>514</v>
@@ -20041,7 +20047,7 @@
         <v>52</v>
       </c>
       <c r="N272" s="300" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O272" s="298">
         <v>42709</v>
@@ -20067,13 +20073,13 @@
         <v>42695</v>
       </c>
       <c r="F273" s="300" t="s">
+        <v>698</v>
+      </c>
+      <c r="G273" s="327" t="s">
+        <v>707</v>
+      </c>
+      <c r="I273" s="300" t="s">
         <v>699</v>
-      </c>
-      <c r="G273" s="327" t="s">
-        <v>708</v>
-      </c>
-      <c r="I273" s="300" t="s">
-        <v>700</v>
       </c>
       <c r="K273" s="298">
         <v>42715</v>
@@ -20108,16 +20114,16 @@
         <v>649</v>
       </c>
       <c r="G274" s="350" t="s">
+        <v>687</v>
+      </c>
+      <c r="I274" s="269" t="s">
         <v>688</v>
-      </c>
-      <c r="I274" s="269" t="s">
-        <v>689</v>
       </c>
       <c r="L274" s="269" t="s">
         <v>155</v>
       </c>
       <c r="N274" s="269" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P274" s="269" t="s">
         <v>366</v>
@@ -20149,7 +20155,7 @@
         <v>106</v>
       </c>
       <c r="I275" s="300" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K275" s="298">
         <v>42713</v>
@@ -20158,7 +20164,7 @@
         <v>266</v>
       </c>
       <c r="N275" s="300" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="O275" s="298">
         <v>42710</v>
@@ -20203,7 +20209,7 @@
       </c>
       <c r="M276" s="269"/>
       <c r="N276" s="269" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O276" s="329">
         <v>42710</v>
@@ -20238,7 +20244,7 @@
         <v>106</v>
       </c>
       <c r="I277" s="300" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K277" s="298">
         <v>42715</v>
@@ -20289,7 +20295,7 @@
       </c>
       <c r="M278" s="269"/>
       <c r="N278" s="269" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O278" s="329">
         <v>42710</v>
@@ -20324,7 +20330,7 @@
         <v>106</v>
       </c>
       <c r="I279" s="300" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K279" s="298">
         <v>42715</v>
@@ -20333,7 +20339,7 @@
         <v>52</v>
       </c>
       <c r="N279" s="300" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O279" s="298">
         <v>42715</v>
@@ -20362,7 +20368,7 @@
         <v>657</v>
       </c>
       <c r="G280" s="322" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H280" s="365" t="s">
         <v>106</v>
@@ -20374,7 +20380,7 @@
         <v>52</v>
       </c>
       <c r="N280" s="300" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O280" s="298">
         <v>42715</v>
@@ -20409,7 +20415,7 @@
         <v>106</v>
       </c>
       <c r="I281" s="300" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K281" s="298">
         <v>42715</v>
@@ -20444,16 +20450,16 @@
         <v>657</v>
       </c>
       <c r="G282" s="366" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H282" s="364" t="s">
         <v>106</v>
       </c>
       <c r="I282" s="364" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N282" s="269" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O282" s="329"/>
     </row>
@@ -20474,19 +20480,19 @@
         <v>42715</v>
       </c>
       <c r="F283" s="364" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G283" s="366" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H283" s="364" t="s">
         <v>106</v>
       </c>
       <c r="I283" s="364" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N283" s="269" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O283" s="329"/>
     </row>
@@ -20507,7 +20513,7 @@
         <v>42715</v>
       </c>
       <c r="F284" s="300" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G284" s="327" t="s">
         <v>672</v>
@@ -20545,13 +20551,13 @@
         <v>42715</v>
       </c>
       <c r="F285" s="300" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G285" s="327" t="s">
         <v>673</v>
       </c>
       <c r="I285" s="300" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K285" s="298">
         <v>42715</v>
@@ -20583,10 +20589,10 @@
         <v>42715</v>
       </c>
       <c r="F286" s="300" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G286" s="327" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I286" s="300" t="s">
         <v>514</v>
@@ -20621,16 +20627,16 @@
         <v>42715</v>
       </c>
       <c r="F287" s="300" t="s">
+        <v>700</v>
+      </c>
+      <c r="G287" s="327" t="s">
         <v>701</v>
-      </c>
-      <c r="G287" s="327" t="s">
-        <v>702</v>
       </c>
       <c r="H287" s="300" t="s">
         <v>106</v>
       </c>
       <c r="I287" s="300" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K287" s="298">
         <v>42715</v>
@@ -20665,11 +20671,11 @@
         <v>648</v>
       </c>
       <c r="G288" s="366" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H288" s="364"/>
       <c r="I288" s="364" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O288" s="329"/>
     </row>
@@ -20690,16 +20696,16 @@
         <v>42717</v>
       </c>
       <c r="F289" s="364" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G289" s="367" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H289" s="313" t="s">
         <v>262</v>
       </c>
       <c r="I289" s="269" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O289" s="329"/>
     </row>
@@ -20720,16 +20726,16 @@
         <v>42717</v>
       </c>
       <c r="F290" s="364" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G290" s="367" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H290" s="313" t="s">
         <v>262</v>
       </c>
       <c r="I290" s="269" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O290" s="329"/>
     </row>
@@ -20750,10 +20756,10 @@
         <v>42723</v>
       </c>
       <c r="F291" s="269" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G291" s="366" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H291" s="269" t="s">
         <v>106</v>
@@ -20765,7 +20771,7 @@
         <v>42728</v>
       </c>
       <c r="P291" s="269" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="292" spans="1:16" ht="27">
@@ -20785,25 +20791,25 @@
         <v>42723</v>
       </c>
       <c r="F292" s="269" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G292" s="350" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H292" s="269" t="s">
         <v>106</v>
       </c>
       <c r="L292" s="269" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="N292" s="269" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="O292" s="329">
-        <v>42727</v>
+        <v>42751</v>
       </c>
       <c r="P292" s="269" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="293" spans="1:16" ht="40.5">
@@ -20823,25 +20829,25 @@
         <v>42723</v>
       </c>
       <c r="F293" s="269" t="s">
+        <v>802</v>
+      </c>
+      <c r="G293" s="350" t="s">
         <v>803</v>
-      </c>
-      <c r="G293" s="350" t="s">
-        <v>804</v>
       </c>
       <c r="H293" s="269" t="s">
         <v>106</v>
       </c>
       <c r="L293" s="269" t="s">
+        <v>819</v>
+      </c>
+      <c r="N293" s="269" t="s">
         <v>820</v>
-      </c>
-      <c r="N293" s="269" t="s">
-        <v>822</v>
       </c>
       <c r="O293" s="329">
         <v>42727</v>
       </c>
       <c r="P293" s="269" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="294" spans="1:16" ht="27">
@@ -20861,25 +20867,25 @@
         <v>42725</v>
       </c>
       <c r="F294" s="364" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G294" s="350" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H294" s="269" t="s">
         <v>106</v>
       </c>
       <c r="L294" s="269" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="N294" s="269" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="O294" s="329">
         <v>42728</v>
       </c>
       <c r="P294" s="269" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="295" spans="1:16" ht="40.5">
@@ -20899,22 +20905,22 @@
         <v>42724</v>
       </c>
       <c r="F295" s="269" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G295" s="350" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H295" s="269" t="s">
         <v>106</v>
       </c>
       <c r="L295" s="269" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="O295" s="329">
         <v>42728</v>
       </c>
       <c r="P295" s="269" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -23970,7 +23976,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E1" s="168" t="s">
         <v>3</v>
@@ -24026,10 +24032,10 @@
         <v>42555</v>
       </c>
       <c r="F2" s="234" t="s">
+        <v>711</v>
+      </c>
+      <c r="G2" s="214" t="s">
         <v>712</v>
-      </c>
-      <c r="G2" s="214" t="s">
-        <v>713</v>
       </c>
       <c r="H2" s="250"/>
       <c r="I2" s="250" t="s">
@@ -24066,14 +24072,14 @@
         <v>42555</v>
       </c>
       <c r="F3" s="234" t="s">
+        <v>713</v>
+      </c>
+      <c r="G3" s="214" t="s">
         <v>714</v>
-      </c>
-      <c r="G3" s="214" t="s">
-        <v>715</v>
       </c>
       <c r="H3" s="250"/>
       <c r="I3" s="250" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J3" s="233"/>
       <c r="K3" s="253">
@@ -24108,10 +24114,10 @@
         <v>42555</v>
       </c>
       <c r="F4" s="234" t="s">
+        <v>716</v>
+      </c>
+      <c r="G4" s="214" t="s">
         <v>717</v>
-      </c>
-      <c r="G4" s="214" t="s">
-        <v>718</v>
       </c>
       <c r="H4" s="250" t="s">
         <v>262</v>
@@ -24153,7 +24159,7 @@
       </c>
       <c r="F5" s="234"/>
       <c r="G5" s="214" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H5" s="250"/>
       <c r="I5" s="250" t="s">
@@ -24190,10 +24196,10 @@
         <v>42555</v>
       </c>
       <c r="F6" s="234" t="s">
+        <v>719</v>
+      </c>
+      <c r="G6" s="214" t="s">
         <v>720</v>
-      </c>
-      <c r="G6" s="214" t="s">
-        <v>721</v>
       </c>
       <c r="H6" s="250"/>
       <c r="I6" s="249" t="s">
@@ -24230,10 +24236,10 @@
         <v>42612</v>
       </c>
       <c r="F7" s="231" t="s">
+        <v>721</v>
+      </c>
+      <c r="G7" s="214" t="s">
         <v>722</v>
-      </c>
-      <c r="G7" s="214" t="s">
-        <v>723</v>
       </c>
       <c r="H7" s="250"/>
       <c r="I7" s="249" t="s">
@@ -24266,10 +24272,10 @@
         <v>42612</v>
       </c>
       <c r="F8" s="234" t="s">
+        <v>723</v>
+      </c>
+      <c r="G8" s="214" t="s">
         <v>724</v>
-      </c>
-      <c r="G8" s="214" t="s">
-        <v>725</v>
       </c>
       <c r="H8" s="250" t="s">
         <v>262</v>
@@ -24310,10 +24316,10 @@
         <v>42612</v>
       </c>
       <c r="F9" s="234" t="s">
+        <v>725</v>
+      </c>
+      <c r="G9" s="214" t="s">
         <v>726</v>
-      </c>
-      <c r="G9" s="214" t="s">
-        <v>727</v>
       </c>
       <c r="H9" s="250" t="s">
         <v>262</v>
@@ -24354,10 +24360,10 @@
         <v>42612</v>
       </c>
       <c r="F10" s="234" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G10" s="114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H10" s="250" t="s">
         <v>262</v>
@@ -24396,10 +24402,10 @@
         <v>42616</v>
       </c>
       <c r="F11" s="234" t="s">
+        <v>728</v>
+      </c>
+      <c r="G11" s="114" t="s">
         <v>729</v>
-      </c>
-      <c r="G11" s="114" t="s">
-        <v>730</v>
       </c>
       <c r="H11" s="250" t="s">
         <v>262</v>
@@ -24438,10 +24444,10 @@
         <v>42616</v>
       </c>
       <c r="F12" s="234" t="s">
+        <v>730</v>
+      </c>
+      <c r="G12" s="214" t="s">
         <v>731</v>
-      </c>
-      <c r="G12" s="214" t="s">
-        <v>732</v>
       </c>
       <c r="H12" s="250" t="s">
         <v>262</v>
@@ -24481,7 +24487,7 @@
       </c>
       <c r="F13" s="234"/>
       <c r="G13" s="214" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H13" s="250"/>
       <c r="I13" s="249" t="s">
@@ -24519,7 +24525,7 @@
       </c>
       <c r="F14" s="234"/>
       <c r="G14" s="214" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H14" s="250"/>
       <c r="I14" s="138" t="s">
@@ -24557,7 +24563,7 @@
       </c>
       <c r="F15" s="234"/>
       <c r="G15" s="214" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H15" s="250"/>
       <c r="I15" s="138" t="s">
@@ -24595,7 +24601,7 @@
       </c>
       <c r="F16" s="234"/>
       <c r="G16" s="214" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H16" s="250" t="s">
         <v>262</v>
@@ -24635,7 +24641,7 @@
       </c>
       <c r="F17" s="234"/>
       <c r="G17" s="214" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H17" s="250" t="s">
         <v>262</v>
@@ -24677,7 +24683,7 @@
       </c>
       <c r="F18" s="231"/>
       <c r="G18" s="214" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H18" s="250" t="s">
         <v>262</v>
@@ -24719,7 +24725,7 @@
       </c>
       <c r="F19" s="231"/>
       <c r="G19" s="114" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H19" s="250"/>
       <c r="I19" s="249" t="s">
@@ -24758,10 +24764,10 @@
         <v>42630</v>
       </c>
       <c r="F20" s="231" t="s">
+        <v>739</v>
+      </c>
+      <c r="G20" s="114" t="s">
         <v>740</v>
-      </c>
-      <c r="G20" s="114" t="s">
-        <v>741</v>
       </c>
       <c r="H20" s="250" t="s">
         <v>262</v>
@@ -24802,10 +24808,10 @@
         <v>42633</v>
       </c>
       <c r="F21" s="264" t="s">
+        <v>741</v>
+      </c>
+      <c r="G21" s="265" t="s">
         <v>742</v>
-      </c>
-      <c r="G21" s="265" t="s">
-        <v>743</v>
       </c>
       <c r="I21" s="266" t="s">
         <v>420</v>
@@ -24845,7 +24851,7 @@
         <v>278</v>
       </c>
       <c r="G22" s="204" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H22" s="250" t="s">
         <v>262</v>
@@ -24887,10 +24893,10 @@
         <v>42645</v>
       </c>
       <c r="F23" s="234" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G23" s="204" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H23" s="250" t="s">
         <v>262</v>
@@ -24929,10 +24935,10 @@
         <v>42645</v>
       </c>
       <c r="F24" s="234" t="s">
+        <v>745</v>
+      </c>
+      <c r="G24" s="207" t="s">
         <v>746</v>
-      </c>
-      <c r="G24" s="207" t="s">
-        <v>747</v>
       </c>
       <c r="H24" s="250" t="s">
         <v>262</v>
@@ -24974,10 +24980,10 @@
         <v>42645</v>
       </c>
       <c r="F25" s="234" t="s">
+        <v>747</v>
+      </c>
+      <c r="G25" s="207" t="s">
         <v>748</v>
-      </c>
-      <c r="G25" s="207" t="s">
-        <v>749</v>
       </c>
       <c r="H25" s="250" t="s">
         <v>262</v>
@@ -25019,10 +25025,10 @@
         <v>42653</v>
       </c>
       <c r="F26" s="234" t="s">
+        <v>749</v>
+      </c>
+      <c r="G26" s="184" t="s">
         <v>750</v>
-      </c>
-      <c r="G26" s="184" t="s">
-        <v>751</v>
       </c>
       <c r="H26" s="250"/>
       <c r="I26" s="266" t="s">
@@ -25059,16 +25065,16 @@
         <v>42656</v>
       </c>
       <c r="F27" s="234" t="s">
+        <v>751</v>
+      </c>
+      <c r="G27" s="204" t="s">
         <v>752</v>
-      </c>
-      <c r="G27" s="204" t="s">
-        <v>753</v>
       </c>
       <c r="H27" s="250" t="s">
         <v>262</v>
       </c>
       <c r="I27" s="267" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J27" s="262"/>
       <c r="K27" s="260">
@@ -25097,16 +25103,16 @@
         <v>42657</v>
       </c>
       <c r="F28" s="234" t="s">
+        <v>753</v>
+      </c>
+      <c r="G28" s="204" t="s">
         <v>754</v>
-      </c>
-      <c r="G28" s="204" t="s">
-        <v>755</v>
       </c>
       <c r="H28" s="250" t="s">
         <v>262</v>
       </c>
       <c r="I28" s="256" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K28" s="260">
         <v>42666</v>
@@ -25134,13 +25140,13 @@
         <v>42695</v>
       </c>
       <c r="F29" s="256" t="s">
+        <v>756</v>
+      </c>
+      <c r="G29" s="226" t="s">
         <v>757</v>
       </c>
-      <c r="G29" s="226" t="s">
+      <c r="I29" s="256" t="s">
         <v>758</v>
-      </c>
-      <c r="I29" s="256" t="s">
-        <v>759</v>
       </c>
       <c r="K29" s="260">
         <v>42715</v>
@@ -25172,16 +25178,16 @@
         <v>42695</v>
       </c>
       <c r="F30" s="256" t="s">
+        <v>759</v>
+      </c>
+      <c r="G30" s="240" t="s">
         <v>760</v>
       </c>
-      <c r="G30" s="240" t="s">
+      <c r="H30" s="256" t="s">
         <v>761</v>
       </c>
-      <c r="H30" s="256" t="s">
-        <v>762</v>
-      </c>
       <c r="I30" s="256" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K30" s="260">
         <v>42713</v>
@@ -25190,7 +25196,7 @@
         <v>52</v>
       </c>
       <c r="N30" s="256" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O30" s="260">
         <v>42710</v>
@@ -25216,16 +25222,16 @@
         <v>42695</v>
       </c>
       <c r="F31" s="256" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G31" s="226" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H31" s="256" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I31" s="256" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K31" s="260">
         <v>42713</v>
@@ -25234,7 +25240,7 @@
         <v>52</v>
       </c>
       <c r="N31" s="256" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O31" s="260">
         <v>42710</v>
@@ -25251,7 +25257,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="250" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D32" s="253">
         <v>42713</v>
@@ -25260,13 +25266,13 @@
         <v>42715</v>
       </c>
       <c r="F32" s="256" t="s">
+        <v>764</v>
+      </c>
+      <c r="G32" s="226" t="s">
         <v>765</v>
       </c>
-      <c r="G32" s="226" t="s">
-        <v>766</v>
-      </c>
       <c r="I32" s="256" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K32" s="260">
         <v>42715</v>
